--- a/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1677A-8F4E-DC4B-8E59-4BBB2357252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1438C5-0884-6949-81D8-DEB76F80FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="127">
   <si>
     <t>DOI</t>
   </si>
@@ -335,13 +335,79 @@
   </si>
   <si>
     <t>K_D (nM)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Radiant flux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +421,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -364,7 +438,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -398,17 +472,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,15 +801,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="260" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="260" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,8 +828,23 @@
       <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -753,8 +860,23 @@
       <c r="E2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -770,8 +892,23 @@
       <c r="E3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -787,8 +924,23 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -804,8 +956,23 @@
       <c r="E5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -821,8 +988,23 @@
       <c r="E6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -838,8 +1020,23 @@
       <c r="E7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -855,8 +1052,23 @@
       <c r="E8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -872,8 +1084,23 @@
       <c r="E9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -889,8 +1116,23 @@
       <c r="E10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -906,8 +1148,23 @@
       <c r="E11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -923,8 +1180,23 @@
       <c r="E12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -940,8 +1212,23 @@
       <c r="E13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -957,8 +1244,23 @@
       <c r="E14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -974,8 +1276,23 @@
       <c r="E15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1308,23 @@
       <c r="E16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1008,8 +1340,23 @@
       <c r="E17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1025,8 +1372,23 @@
       <c r="E18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1042,8 +1404,23 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1436,23 @@
       <c r="E20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1076,8 +1468,23 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1093,8 +1500,23 @@
       <c r="E22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1110,8 +1532,23 @@
       <c r="E23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1127,8 +1564,23 @@
       <c r="E24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1144,8 +1596,23 @@
       <c r="E25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1161,8 +1628,23 @@
       <c r="E26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1178,8 +1660,23 @@
       <c r="E27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1195,8 +1692,23 @@
       <c r="E28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1212,8 +1724,23 @@
       <c r="E29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1229,8 +1756,23 @@
       <c r="E30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1246,8 +1788,23 @@
       <c r="E31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1263,8 +1820,23 @@
       <c r="E32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1280,8 +1852,23 @@
       <c r="E33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1297,8 +1884,23 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1314,8 +1916,23 @@
       <c r="E35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1331,8 +1948,23 @@
       <c r="E36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1348,8 +1980,23 @@
       <c r="E37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1365,8 +2012,23 @@
       <c r="E38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1382,8 +2044,23 @@
       <c r="E39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1399,8 +2076,23 @@
       <c r="E40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1416,8 +2108,23 @@
       <c r="E41" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -1433,8 +2140,23 @@
       <c r="E42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -1450,8 +2172,23 @@
       <c r="E43" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1467,8 +2204,23 @@
       <c r="E44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -1484,8 +2236,23 @@
       <c r="E45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -1501,8 +2268,23 @@
       <c r="E46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -1518,8 +2300,23 @@
       <c r="E47" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -1535,8 +2332,23 @@
       <c r="E48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1552,8 +2364,23 @@
       <c r="E49" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1569,8 +2396,23 @@
       <c r="E50" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1586,8 +2428,23 @@
       <c r="E51" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -1603,8 +2460,23 @@
       <c r="E52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1620,8 +2492,23 @@
       <c r="E53" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1637,8 +2524,23 @@
       <c r="E54" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" t="s">
+        <v>118</v>
+      </c>
+      <c r="J54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1654,8 +2556,23 @@
       <c r="E55" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -1671,8 +2588,23 @@
       <c r="E56" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1688,8 +2620,23 @@
       <c r="E57" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -1705,8 +2652,23 @@
       <c r="E58" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" t="s">
+        <v>117</v>
+      </c>
+      <c r="I58" t="s">
+        <v>118</v>
+      </c>
+      <c r="J58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -1722,8 +2684,23 @@
       <c r="E59" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -1739,8 +2716,23 @@
       <c r="E60" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" t="s">
+        <v>121</v>
+      </c>
+      <c r="I60" t="s">
+        <v>122</v>
+      </c>
+      <c r="J60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -1756,8 +2748,23 @@
       <c r="E61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>110</v>
+      </c>
+      <c r="G61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -1773,8 +2780,23 @@
       <c r="E62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" t="s">
+        <v>122</v>
+      </c>
+      <c r="J62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -1790,8 +2812,23 @@
       <c r="E63" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" t="s">
+        <v>122</v>
+      </c>
+      <c r="J63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -1807,8 +2844,23 @@
       <c r="E64" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" t="s">
+        <v>124</v>
+      </c>
+      <c r="I64" t="s">
+        <v>122</v>
+      </c>
+      <c r="J64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -1824,8 +2876,23 @@
       <c r="E65" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" t="s">
+        <v>124</v>
+      </c>
+      <c r="I65" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -1841,8 +2908,23 @@
       <c r="E66" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" t="s">
+        <v>122</v>
+      </c>
+      <c r="J66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -1858,8 +2940,23 @@
       <c r="E67" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" t="s">
+        <v>122</v>
+      </c>
+      <c r="J67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -1875,8 +2972,23 @@
       <c r="E68" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" t="s">
+        <v>124</v>
+      </c>
+      <c r="I68" t="s">
+        <v>122</v>
+      </c>
+      <c r="J68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -1892,8 +3004,23 @@
       <c r="E69" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" t="s">
+        <v>124</v>
+      </c>
+      <c r="I69" t="s">
+        <v>122</v>
+      </c>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -1909,8 +3036,23 @@
       <c r="E70" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I70" t="s">
+        <v>122</v>
+      </c>
+      <c r="J70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -1926,8 +3068,23 @@
       <c r="E71" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" t="s">
+        <v>124</v>
+      </c>
+      <c r="I71" t="s">
+        <v>122</v>
+      </c>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -1943,8 +3100,23 @@
       <c r="E72" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I72" t="s">
+        <v>122</v>
+      </c>
+      <c r="J72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -1960,8 +3132,23 @@
       <c r="E73" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" t="s">
+        <v>124</v>
+      </c>
+      <c r="I73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -1977,8 +3164,23 @@
       <c r="E74" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" t="s">
+        <v>124</v>
+      </c>
+      <c r="I74" t="s">
+        <v>122</v>
+      </c>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -1994,8 +3196,23 @@
       <c r="E75" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>115</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" t="s">
+        <v>124</v>
+      </c>
+      <c r="I75" t="s">
+        <v>122</v>
+      </c>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -2011,8 +3228,23 @@
       <c r="E76" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" t="s">
+        <v>124</v>
+      </c>
+      <c r="I76" t="s">
+        <v>122</v>
+      </c>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -2028,8 +3260,23 @@
       <c r="E77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>110</v>
+      </c>
+      <c r="G77" t="s">
+        <v>114</v>
+      </c>
+      <c r="H77" t="s">
+        <v>114</v>
+      </c>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -2045,8 +3292,23 @@
       <c r="E78" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" t="s">
+        <v>114</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -2062,8 +3324,23 @@
       <c r="E79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>110</v>
+      </c>
+      <c r="G79" t="s">
+        <v>114</v>
+      </c>
+      <c r="H79" t="s">
+        <v>114</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -2079,8 +3356,23 @@
       <c r="E80" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>110</v>
+      </c>
+      <c r="G80" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" t="s">
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -2096,8 +3388,23 @@
       <c r="E81" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" t="s">
+        <v>112</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -2113,8 +3420,23 @@
       <c r="E82" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H82" t="s">
+        <v>112</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -2130,8 +3452,23 @@
       <c r="E83" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H83" t="s">
+        <v>121</v>
+      </c>
+      <c r="I83" t="s">
+        <v>122</v>
+      </c>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -2147,8 +3484,23 @@
       <c r="E84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" t="s">
+        <v>121</v>
+      </c>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -2164,8 +3516,23 @@
       <c r="E85" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" t="s">
+        <v>121</v>
+      </c>
+      <c r="I85" t="s">
+        <v>122</v>
+      </c>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -2181,8 +3548,23 @@
       <c r="E86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" t="s">
+        <v>121</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+      <c r="J86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -2198,8 +3580,23 @@
       <c r="E87" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" t="s">
+        <v>121</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+      <c r="J87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -2215,8 +3612,23 @@
       <c r="E88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" t="s">
+        <v>121</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+      <c r="J88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -2232,8 +3644,23 @@
       <c r="E89" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" t="s">
+        <v>121</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+      <c r="J89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +3676,23 @@
       <c r="E90" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" t="s">
+        <v>121</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+      <c r="J90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>45</v>
       </c>
@@ -2266,8 +3708,23 @@
       <c r="E91" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
+      <c r="H91" t="s">
+        <v>121</v>
+      </c>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+      <c r="J91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -2283,8 +3740,23 @@
       <c r="E92" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" t="s">
+        <v>121</v>
+      </c>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+      <c r="J92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -2300,8 +3772,23 @@
       <c r="E93" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>115</v>
+      </c>
+      <c r="G93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H93" t="s">
+        <v>121</v>
+      </c>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+      <c r="J93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -2317,8 +3804,23 @@
       <c r="E94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" t="s">
+        <v>121</v>
+      </c>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+      <c r="J94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -2334,8 +3836,23 @@
       <c r="E95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>115</v>
+      </c>
+      <c r="G95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H95" t="s">
+        <v>121</v>
+      </c>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+      <c r="J95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -2351,8 +3868,23 @@
       <c r="E96" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>115</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" t="s">
+        <v>121</v>
+      </c>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+      <c r="J96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -2368,8 +3900,23 @@
       <c r="E97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>115</v>
+      </c>
+      <c r="G97" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" t="s">
+        <v>121</v>
+      </c>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+      <c r="J97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -2385,8 +3932,23 @@
       <c r="E98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>115</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" t="s">
+        <v>121</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+      <c r="J98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -2402,8 +3964,23 @@
       <c r="E99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" t="s">
+        <v>116</v>
+      </c>
+      <c r="H99" t="s">
+        <v>121</v>
+      </c>
+      <c r="I99" t="s">
+        <v>122</v>
+      </c>
+      <c r="J99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -2419,8 +3996,23 @@
       <c r="E100" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" t="s">
+        <v>121</v>
+      </c>
+      <c r="I100" t="s">
+        <v>122</v>
+      </c>
+      <c r="J100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -2436,8 +4028,23 @@
       <c r="E101" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>115</v>
+      </c>
+      <c r="G101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H101" t="s">
+        <v>121</v>
+      </c>
+      <c r="I101" t="s">
+        <v>122</v>
+      </c>
+      <c r="J101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -2453,8 +4060,23 @@
       <c r="E102" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" t="s">
+        <v>121</v>
+      </c>
+      <c r="I102" t="s">
+        <v>122</v>
+      </c>
+      <c r="J102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -2470,8 +4092,23 @@
       <c r="E103" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>115</v>
+      </c>
+      <c r="G103" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" t="s">
+        <v>121</v>
+      </c>
+      <c r="I103" t="s">
+        <v>122</v>
+      </c>
+      <c r="J103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -2487,8 +4124,23 @@
       <c r="E104" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104" t="s">
+        <v>121</v>
+      </c>
+      <c r="I104" t="s">
+        <v>122</v>
+      </c>
+      <c r="J104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -2504,8 +4156,23 @@
       <c r="E105" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>110</v>
+      </c>
+      <c r="G105" t="s">
+        <v>114</v>
+      </c>
+      <c r="H105" t="s">
+        <v>114</v>
+      </c>
+      <c r="I105" t="s">
+        <v>114</v>
+      </c>
+      <c r="J105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -2521,8 +4188,23 @@
       <c r="E106" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H106" t="s">
+        <v>121</v>
+      </c>
+      <c r="I106" t="s">
+        <v>122</v>
+      </c>
+      <c r="J106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>45</v>
       </c>
@@ -2538,8 +4220,23 @@
       <c r="E107" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>110</v>
+      </c>
+      <c r="G107" t="s">
+        <v>114</v>
+      </c>
+      <c r="H107" t="s">
+        <v>114</v>
+      </c>
+      <c r="I107" t="s">
+        <v>114</v>
+      </c>
+      <c r="J107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>45</v>
       </c>
@@ -2555,8 +4252,23 @@
       <c r="E108" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>115</v>
+      </c>
+      <c r="G108" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I108" t="s">
+        <v>122</v>
+      </c>
+      <c r="J108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>45</v>
       </c>
@@ -2572,8 +4284,23 @@
       <c r="E109" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" t="s">
+        <v>121</v>
+      </c>
+      <c r="I109" t="s">
+        <v>122</v>
+      </c>
+      <c r="J109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -2589,8 +4316,23 @@
       <c r="E110" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>115</v>
+      </c>
+      <c r="G110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110" t="s">
+        <v>121</v>
+      </c>
+      <c r="I110" t="s">
+        <v>122</v>
+      </c>
+      <c r="J110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>45</v>
       </c>
@@ -2606,8 +4348,23 @@
       <c r="E111" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>115</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111" t="s">
+        <v>121</v>
+      </c>
+      <c r="I111" t="s">
+        <v>122</v>
+      </c>
+      <c r="J111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>45</v>
       </c>
@@ -2623,8 +4380,23 @@
       <c r="E112" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>115</v>
+      </c>
+      <c r="G112" t="s">
+        <v>116</v>
+      </c>
+      <c r="H112" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112" t="s">
+        <v>122</v>
+      </c>
+      <c r="J112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -2640,8 +4412,23 @@
       <c r="E113" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>115</v>
+      </c>
+      <c r="G113" t="s">
+        <v>116</v>
+      </c>
+      <c r="H113" t="s">
+        <v>121</v>
+      </c>
+      <c r="I113" t="s">
+        <v>122</v>
+      </c>
+      <c r="J113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -2657,8 +4444,23 @@
       <c r="E114" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>115</v>
+      </c>
+      <c r="G114" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" t="s">
+        <v>119</v>
+      </c>
+      <c r="J114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -2674,8 +4476,23 @@
       <c r="E115" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>115</v>
+      </c>
+      <c r="G115" t="s">
+        <v>116</v>
+      </c>
+      <c r="H115" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" t="s">
+        <v>119</v>
+      </c>
+      <c r="J115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>57</v>
       </c>
@@ -2691,8 +4508,23 @@
       <c r="E116" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>115</v>
+      </c>
+      <c r="G116" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116" t="s">
+        <v>120</v>
+      </c>
+      <c r="I116" t="s">
+        <v>119</v>
+      </c>
+      <c r="J116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>57</v>
       </c>
@@ -2708,8 +4540,23 @@
       <c r="E117" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>115</v>
+      </c>
+      <c r="G117" t="s">
+        <v>116</v>
+      </c>
+      <c r="H117" t="s">
+        <v>120</v>
+      </c>
+      <c r="I117" t="s">
+        <v>119</v>
+      </c>
+      <c r="J117" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -2724,6 +4571,21 @@
       </c>
       <c r="E118" t="s">
         <v>104</v>
+      </c>
+      <c r="F118" t="s">
+        <v>115</v>
+      </c>
+      <c r="G118" t="s">
+        <v>116</v>
+      </c>
+      <c r="H118" t="s">
+        <v>120</v>
+      </c>
+      <c r="I118" t="s">
+        <v>119</v>
+      </c>
+      <c r="J118" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1438C5-0884-6949-81D8-DEB76F80FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144E01E-C6B7-A944-8935-08FF8FA634B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="245">
   <si>
     <t>DOI</t>
   </si>
@@ -401,6 +401,360 @@
   </si>
   <si>
     <t>Radiant flux</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abm6359_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6173_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6173_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig17</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig18</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig19</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn6612_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo4365_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo7975_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo7975_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo7975_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abp9547_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abp9940_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abq4573_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abq4573_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abq4573_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add1599_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add1599_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add1599_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4132_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add5204_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add5204_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add5204_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade3369_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade3369_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade3525_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adf7579_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adf7579_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg3517_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg6155_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg6155_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg6155_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg6155_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg7015_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg7015_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg8249_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig17</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig18</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig19</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig20</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig21</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig22</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig23</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig24</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig25</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig26</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig27</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig28</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig29</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig30</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3113_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adj5792_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adj5792_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adj5792_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adj5792_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adj5792_log_fig5</t>
   </si>
 </sst>
 </file>
@@ -801,102 +1155,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="260" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:J50"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>110</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>111</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>112</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>111</v>
       </c>
-      <c r="J2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>110</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
       </c>
       <c r="H3" t="s">
         <v>114</v>
@@ -905,30 +1265,33 @@
         <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>114</v>
       </c>
       <c r="H4" t="s">
         <v>114</v>
@@ -937,1054 +1300,1153 @@
         <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
         <v>117</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>118</v>
       </c>
-      <c r="J5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
-        <v>115</v>
-      </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
         <v>117</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>118</v>
       </c>
-      <c r="J6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
-        <v>115</v>
-      </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" t="s">
         <v>117</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>118</v>
       </c>
-      <c r="J7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
-        <v>115</v>
-      </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
         <v>117</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>118</v>
       </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
         <v>117</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
         <v>117</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>118</v>
       </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
         <v>117</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
         <v>117</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>118</v>
       </c>
-      <c r="J12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
         <v>117</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>118</v>
       </c>
-      <c r="J13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" t="s">
         <v>117</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>118</v>
       </c>
-      <c r="J14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="F15" t="s">
-        <v>115</v>
-      </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" t="s">
         <v>117</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>118</v>
       </c>
-      <c r="J15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
         <v>117</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>118</v>
       </c>
-      <c r="J16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
         <v>117</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="J17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" t="s">
         <v>117</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>118</v>
       </c>
-      <c r="J18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" t="s">
         <v>117</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>118</v>
       </c>
-      <c r="J19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
-        <v>115</v>
-      </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s">
         <v>117</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>118</v>
       </c>
-      <c r="J20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
         <v>117</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>118</v>
       </c>
-      <c r="J21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" t="s">
-        <v>115</v>
-      </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s">
         <v>117</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>118</v>
       </c>
-      <c r="J22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
         <v>117</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>118</v>
       </c>
-      <c r="J23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" t="s">
         <v>124</v>
       </c>
-      <c r="I24" t="s">
-        <v>122</v>
-      </c>
       <c r="J24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>66</v>
       </c>
-      <c r="F25" t="s">
-        <v>115</v>
-      </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
         <v>124</v>
       </c>
-      <c r="I25" t="s">
-        <v>122</v>
-      </c>
       <c r="J25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>67</v>
       </c>
-      <c r="F26" t="s">
-        <v>115</v>
-      </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
         <v>124</v>
       </c>
-      <c r="I26" t="s">
-        <v>122</v>
-      </c>
       <c r="J26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>68</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>110</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>111</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>112</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>111</v>
       </c>
-      <c r="J27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>69</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>110</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>114</v>
-      </c>
-      <c r="H28" t="s">
-        <v>70</v>
       </c>
       <c r="I28" t="s">
         <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>110</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>114</v>
-      </c>
-      <c r="H29" t="s">
-        <v>70</v>
       </c>
       <c r="I29" t="s">
         <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>71</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>110</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>114</v>
-      </c>
-      <c r="H30" t="s">
-        <v>70</v>
       </c>
       <c r="I30" t="s">
         <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>72</v>
       </c>
-      <c r="F31" t="s">
-        <v>115</v>
-      </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" t="s">
         <v>124</v>
       </c>
-      <c r="I31" t="s">
-        <v>122</v>
-      </c>
       <c r="J31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>73</v>
       </c>
-      <c r="F32" t="s">
-        <v>115</v>
-      </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" t="s">
         <v>121</v>
       </c>
-      <c r="I32" t="s">
-        <v>122</v>
-      </c>
       <c r="J32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>76</v>
       </c>
-      <c r="F33" t="s">
-        <v>115</v>
-      </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" t="s">
         <v>124</v>
       </c>
-      <c r="I33" t="s">
-        <v>122</v>
-      </c>
       <c r="J33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" t="s">
-        <v>115</v>
-      </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" t="s">
         <v>124</v>
       </c>
-      <c r="I34" t="s">
-        <v>122</v>
-      </c>
       <c r="J34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>75</v>
       </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" t="s">
         <v>124</v>
       </c>
-      <c r="I35" t="s">
-        <v>122</v>
-      </c>
       <c r="J35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>77</v>
       </c>
-      <c r="F36" t="s">
-        <v>115</v>
-      </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
         <v>77</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>123</v>
       </c>
-      <c r="J36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>78</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>110</v>
-      </c>
-      <c r="G37" t="s">
-        <v>114</v>
       </c>
       <c r="H37" t="s">
         <v>114</v>
@@ -1993,30 +2455,33 @@
         <v>114</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>78</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>110</v>
-      </c>
-      <c r="G38" t="s">
-        <v>114</v>
       </c>
       <c r="H38" t="s">
         <v>114</v>
@@ -2025,414 +2490,453 @@
         <v>114</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="F39" t="s">
-        <v>115</v>
-      </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s">
         <v>121</v>
       </c>
-      <c r="I39" t="s">
-        <v>122</v>
-      </c>
       <c r="J39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
       </c>
-      <c r="F40" t="s">
-        <v>115</v>
-      </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" t="s">
         <v>121</v>
       </c>
-      <c r="I40" t="s">
-        <v>122</v>
-      </c>
       <c r="J40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
       </c>
-      <c r="F41" t="s">
-        <v>115</v>
-      </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s">
         <v>121</v>
       </c>
-      <c r="I41" t="s">
-        <v>122</v>
-      </c>
       <c r="J41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>22</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
       </c>
-      <c r="F42" t="s">
-        <v>115</v>
-      </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" t="s">
         <v>121</v>
       </c>
-      <c r="I42" t="s">
-        <v>122</v>
-      </c>
       <c r="J42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>23</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
       </c>
-      <c r="F43" t="s">
-        <v>115</v>
-      </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" t="s">
         <v>121</v>
       </c>
-      <c r="I43" t="s">
-        <v>122</v>
-      </c>
       <c r="J43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
       </c>
-      <c r="F44" t="s">
-        <v>115</v>
-      </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" t="s">
         <v>121</v>
       </c>
-      <c r="I44" t="s">
-        <v>122</v>
-      </c>
       <c r="J44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>79</v>
       </c>
-      <c r="F45" t="s">
-        <v>115</v>
-      </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" t="s">
         <v>121</v>
       </c>
-      <c r="I45" t="s">
-        <v>122</v>
-      </c>
       <c r="J45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>26</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>79</v>
       </c>
-      <c r="F46" t="s">
-        <v>115</v>
-      </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" t="s">
         <v>121</v>
       </c>
-      <c r="I46" t="s">
-        <v>122</v>
-      </c>
       <c r="J46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>79</v>
       </c>
-      <c r="F47" t="s">
-        <v>115</v>
-      </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" t="s">
         <v>121</v>
       </c>
-      <c r="I47" t="s">
-        <v>122</v>
-      </c>
       <c r="J47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>80</v>
       </c>
-      <c r="F48" t="s">
-        <v>115</v>
-      </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" t="s">
         <v>125</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>126</v>
       </c>
-      <c r="J48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
         <v>36</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>80</v>
       </c>
-      <c r="F49" t="s">
-        <v>115</v>
-      </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" t="s">
         <v>125</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>126</v>
       </c>
-      <c r="J49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>21</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>80</v>
       </c>
-      <c r="F50" t="s">
-        <v>115</v>
-      </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" t="s">
         <v>125</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>126</v>
       </c>
-      <c r="J50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="K50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>81</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>110</v>
-      </c>
-      <c r="G51" t="s">
-        <v>114</v>
       </c>
       <c r="H51" t="s">
         <v>114</v>
@@ -2441,126 +2945,138 @@
         <v>114</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>82</v>
       </c>
-      <c r="F52" t="s">
-        <v>115</v>
-      </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H52" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" t="s">
         <v>117</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>118</v>
       </c>
-      <c r="J52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="K52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>21</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>82</v>
       </c>
-      <c r="F53" t="s">
-        <v>115</v>
-      </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H53" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" t="s">
         <v>117</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>118</v>
       </c>
-      <c r="J53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>22</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>82</v>
       </c>
-      <c r="F54" t="s">
-        <v>115</v>
-      </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" t="s">
         <v>117</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>118</v>
       </c>
-      <c r="J54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" t="s">
         <v>37</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>23</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>81</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>110</v>
-      </c>
-      <c r="G55" t="s">
-        <v>114</v>
       </c>
       <c r="H55" t="s">
         <v>114</v>
@@ -2569,30 +3085,33 @@
         <v>114</v>
       </c>
       <c r="J55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
         <v>37</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>24</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>81</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>110</v>
-      </c>
-      <c r="G56" t="s">
-        <v>114</v>
       </c>
       <c r="H56" t="s">
         <v>114</v>
@@ -2601,30 +3120,33 @@
         <v>114</v>
       </c>
       <c r="J56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>25</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>81</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>110</v>
-      </c>
-      <c r="G57" t="s">
-        <v>114</v>
       </c>
       <c r="H57" t="s">
         <v>114</v>
@@ -2633,126 +3155,138 @@
         <v>114</v>
       </c>
       <c r="J57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
         <v>37</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>26</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>82</v>
       </c>
-      <c r="F58" t="s">
-        <v>115</v>
-      </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" t="s">
         <v>117</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>118</v>
       </c>
-      <c r="J58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="K58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
         <v>38</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>83</v>
       </c>
-      <c r="F59" t="s">
-        <v>115</v>
-      </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" t="s">
         <v>121</v>
       </c>
-      <c r="I59" t="s">
-        <v>122</v>
-      </c>
       <c r="J59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" t="s">
         <v>38</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>83</v>
       </c>
-      <c r="F60" t="s">
-        <v>115</v>
-      </c>
       <c r="G60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" t="s">
         <v>121</v>
       </c>
-      <c r="I60" t="s">
-        <v>122</v>
-      </c>
       <c r="J60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="K60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>84</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>110</v>
-      </c>
-      <c r="G61" t="s">
-        <v>114</v>
       </c>
       <c r="H61" t="s">
         <v>114</v>
@@ -2761,510 +3295,558 @@
         <v>114</v>
       </c>
       <c r="J61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
         <v>40</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
-        <v>115</v>
-      </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H62" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I62" t="s">
         <v>122</v>
       </c>
       <c r="J62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
         <v>40</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>85</v>
       </c>
-      <c r="F63" t="s">
-        <v>115</v>
-      </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H63" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I63" t="s">
         <v>122</v>
       </c>
       <c r="J63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="K63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="s">
         <v>41</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>86</v>
       </c>
-      <c r="F64" t="s">
-        <v>115</v>
-      </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H64" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" t="s">
         <v>124</v>
       </c>
-      <c r="I64" t="s">
-        <v>122</v>
-      </c>
       <c r="J64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
         <v>41</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>11</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>86</v>
       </c>
-      <c r="F65" t="s">
-        <v>115</v>
-      </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" t="s">
         <v>124</v>
       </c>
-      <c r="I65" t="s">
-        <v>122</v>
-      </c>
       <c r="J65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="K65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
         <v>41</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>86</v>
       </c>
-      <c r="F66" t="s">
-        <v>115</v>
-      </c>
       <c r="G66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H66" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" t="s">
         <v>124</v>
       </c>
-      <c r="I66" t="s">
-        <v>122</v>
-      </c>
       <c r="J66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="K66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
         <v>41</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>86</v>
       </c>
-      <c r="F67" t="s">
-        <v>115</v>
-      </c>
       <c r="G67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" t="s">
         <v>124</v>
       </c>
-      <c r="I67" t="s">
-        <v>122</v>
-      </c>
       <c r="J67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="K67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
         <v>41</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>86</v>
       </c>
-      <c r="F68" t="s">
-        <v>115</v>
-      </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H68" t="s">
+        <v>116</v>
+      </c>
+      <c r="I68" t="s">
         <v>124</v>
       </c>
-      <c r="I68" t="s">
-        <v>122</v>
-      </c>
       <c r="J68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="K68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" t="s">
         <v>41</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>86</v>
       </c>
-      <c r="F69" t="s">
-        <v>115</v>
-      </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H69" t="s">
+        <v>116</v>
+      </c>
+      <c r="I69" t="s">
         <v>124</v>
       </c>
-      <c r="I69" t="s">
-        <v>122</v>
-      </c>
       <c r="J69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="K69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" t="s">
         <v>41</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>21</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>86</v>
       </c>
-      <c r="F70" t="s">
-        <v>115</v>
-      </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" t="s">
         <v>124</v>
       </c>
-      <c r="I70" t="s">
-        <v>122</v>
-      </c>
       <c r="J70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="K70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" t="s">
         <v>41</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>22</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>86</v>
       </c>
-      <c r="F71" t="s">
-        <v>115</v>
-      </c>
       <c r="G71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" t="s">
+        <v>116</v>
+      </c>
+      <c r="I71" t="s">
         <v>124</v>
       </c>
-      <c r="I71" t="s">
-        <v>122</v>
-      </c>
       <c r="J71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" t="s">
         <v>41</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>23</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>86</v>
       </c>
-      <c r="F72" t="s">
-        <v>115</v>
-      </c>
       <c r="G72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" t="s">
         <v>124</v>
       </c>
-      <c r="I72" t="s">
-        <v>122</v>
-      </c>
       <c r="J72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="K72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
         <v>41</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>24</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>86</v>
       </c>
-      <c r="F73" t="s">
-        <v>115</v>
-      </c>
       <c r="G73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H73" t="s">
+        <v>116</v>
+      </c>
+      <c r="I73" t="s">
         <v>124</v>
       </c>
-      <c r="I73" t="s">
-        <v>122</v>
-      </c>
       <c r="J73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="K73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>25</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
       <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
         <v>86</v>
       </c>
-      <c r="F74" t="s">
-        <v>115</v>
-      </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H74" t="s">
+        <v>116</v>
+      </c>
+      <c r="I74" t="s">
         <v>124</v>
       </c>
-      <c r="I74" t="s">
-        <v>122</v>
-      </c>
       <c r="J74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="K74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" t="s">
         <v>41</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>26</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>86</v>
       </c>
-      <c r="F75" t="s">
-        <v>115</v>
-      </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H75" t="s">
+        <v>116</v>
+      </c>
+      <c r="I75" t="s">
         <v>124</v>
       </c>
-      <c r="I75" t="s">
-        <v>122</v>
-      </c>
       <c r="J75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="K75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s">
         <v>41</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>27</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>86</v>
       </c>
-      <c r="F76" t="s">
-        <v>115</v>
-      </c>
       <c r="G76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H76" t="s">
+        <v>116</v>
+      </c>
+      <c r="I76" t="s">
         <v>124</v>
       </c>
-      <c r="I76" t="s">
-        <v>122</v>
-      </c>
       <c r="J76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" t="s">
         <v>42</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>87</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>110</v>
-      </c>
-      <c r="G77" t="s">
-        <v>114</v>
       </c>
       <c r="H77" t="s">
         <v>114</v>
@@ -3273,30 +3855,33 @@
         <v>114</v>
       </c>
       <c r="J77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" t="s">
         <v>42</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>9</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
         <v>88</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>110</v>
-      </c>
-      <c r="G78" t="s">
-        <v>114</v>
       </c>
       <c r="H78" t="s">
         <v>114</v>
@@ -3305,30 +3890,33 @@
         <v>114</v>
       </c>
       <c r="J78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="K78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
         <v>42</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>21</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
       <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>88</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>110</v>
-      </c>
-      <c r="G79" t="s">
-        <v>114</v>
       </c>
       <c r="H79" t="s">
         <v>114</v>
@@ -3337,30 +3925,33 @@
         <v>114</v>
       </c>
       <c r="J79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+      <c r="K79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" t="s">
         <v>42</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>22</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
       <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>88</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>110</v>
-      </c>
-      <c r="G80" t="s">
-        <v>114</v>
       </c>
       <c r="H80" t="s">
         <v>114</v>
@@ -3369,798 +3960,873 @@
         <v>114</v>
       </c>
       <c r="J80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="K80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" t="s">
         <v>43</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>6</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
       <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
         <v>89</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>110</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>111</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>112</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>111</v>
       </c>
-      <c r="J81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="K81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
         <v>43</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
       <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
         <v>90</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>110</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>111</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>112</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>111</v>
       </c>
-      <c r="J82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="K82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" t="s">
         <v>44</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
       <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
         <v>91</v>
       </c>
-      <c r="F83" t="s">
-        <v>115</v>
-      </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" t="s">
         <v>121</v>
       </c>
-      <c r="I83" t="s">
-        <v>122</v>
-      </c>
       <c r="J83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="K83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
         <v>45</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
       <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>92</v>
       </c>
-      <c r="F84" t="s">
-        <v>115</v>
-      </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I84" t="s">
         <v>121</v>
       </c>
-      <c r="I84" t="s">
-        <v>122</v>
-      </c>
       <c r="J84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="K84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" t="s">
         <v>45</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>11</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
       <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
         <v>93</v>
       </c>
-      <c r="F85" t="s">
-        <v>115</v>
-      </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H85" t="s">
+        <v>116</v>
+      </c>
+      <c r="I85" t="s">
         <v>121</v>
       </c>
-      <c r="I85" t="s">
-        <v>122</v>
-      </c>
       <c r="J85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" t="s">
         <v>45</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>12</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
       <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>95</v>
       </c>
-      <c r="F86" t="s">
-        <v>115</v>
-      </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H86" t="s">
+        <v>116</v>
+      </c>
+      <c r="I86" t="s">
         <v>121</v>
       </c>
-      <c r="I86" t="s">
-        <v>122</v>
-      </c>
       <c r="J86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" t="s">
         <v>45</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>13</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
       <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>94</v>
       </c>
-      <c r="F87" t="s">
-        <v>115</v>
-      </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H87" t="s">
+        <v>116</v>
+      </c>
+      <c r="I87" t="s">
         <v>121</v>
       </c>
-      <c r="I87" t="s">
-        <v>122</v>
-      </c>
       <c r="J87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="K87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" t="s">
         <v>45</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
       <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>14</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
       <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
         <v>93</v>
       </c>
-      <c r="F88" t="s">
-        <v>115</v>
-      </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" t="s">
+        <v>116</v>
+      </c>
+      <c r="I88" t="s">
         <v>121</v>
       </c>
-      <c r="I88" t="s">
-        <v>122</v>
-      </c>
       <c r="J88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="K88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" t="s">
         <v>45</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
         <v>15</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
       <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>95</v>
       </c>
-      <c r="F89" t="s">
-        <v>115</v>
-      </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H89" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" t="s">
         <v>121</v>
       </c>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
       <c r="J89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="K89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" t="s">
         <v>45</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
       <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
         <v>96</v>
       </c>
-      <c r="F90" t="s">
-        <v>115</v>
-      </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H90" t="s">
+        <v>116</v>
+      </c>
+      <c r="I90" t="s">
         <v>121</v>
       </c>
-      <c r="I90" t="s">
-        <v>122</v>
-      </c>
       <c r="J90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+        <v>122</v>
+      </c>
+      <c r="K90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" t="s">
         <v>45</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
       <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>17</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
         <v>97</v>
       </c>
-      <c r="F91" t="s">
-        <v>115</v>
-      </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I91" t="s">
         <v>121</v>
       </c>
-      <c r="I91" t="s">
-        <v>122</v>
-      </c>
       <c r="J91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="K91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" t="s">
         <v>45</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
         <v>18</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
       <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
         <v>98</v>
       </c>
-      <c r="F92" t="s">
-        <v>115</v>
-      </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H92" t="s">
+        <v>116</v>
+      </c>
+      <c r="I92" t="s">
         <v>121</v>
       </c>
-      <c r="I92" t="s">
-        <v>122</v>
-      </c>
       <c r="J92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="K92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" t="s">
         <v>45</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
         <v>19</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
       <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
         <v>99</v>
       </c>
-      <c r="F93" t="s">
-        <v>115</v>
-      </c>
       <c r="G93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H93" t="s">
+        <v>116</v>
+      </c>
+      <c r="I93" t="s">
         <v>121</v>
       </c>
-      <c r="I93" t="s">
-        <v>122</v>
-      </c>
       <c r="J93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+      <c r="K93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" t="s">
         <v>45</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
       <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
         <v>20</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
       <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
         <v>96</v>
       </c>
-      <c r="F94" t="s">
-        <v>115</v>
-      </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H94" t="s">
+        <v>116</v>
+      </c>
+      <c r="I94" t="s">
         <v>121</v>
       </c>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
       <c r="J94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+        <v>122</v>
+      </c>
+      <c r="K94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" t="s">
         <v>45</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
       <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
       <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
         <v>94</v>
       </c>
-      <c r="F95" t="s">
-        <v>115</v>
-      </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H95" t="s">
+        <v>116</v>
+      </c>
+      <c r="I95" t="s">
         <v>121</v>
       </c>
-      <c r="I95" t="s">
-        <v>122</v>
-      </c>
       <c r="J95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="K95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" t="s">
         <v>45</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
       <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
         <v>46</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
       <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
         <v>99</v>
       </c>
-      <c r="F96" t="s">
-        <v>115</v>
-      </c>
       <c r="G96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I96" t="s">
         <v>121</v>
       </c>
-      <c r="I96" t="s">
-        <v>122</v>
-      </c>
       <c r="J96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+        <v>122</v>
+      </c>
+      <c r="K96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" t="s">
         <v>45</v>
       </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
       <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>47</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
       <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
         <v>96</v>
       </c>
-      <c r="F97" t="s">
-        <v>115</v>
-      </c>
       <c r="G97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H97" t="s">
+        <v>116</v>
+      </c>
+      <c r="I97" t="s">
         <v>121</v>
       </c>
-      <c r="I97" t="s">
-        <v>122</v>
-      </c>
       <c r="J97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+        <v>122</v>
+      </c>
+      <c r="K97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" t="s">
         <v>45</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
       <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
         <v>48</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
       <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
         <v>99</v>
       </c>
-      <c r="F98" t="s">
-        <v>115</v>
-      </c>
       <c r="G98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H98" t="s">
+        <v>116</v>
+      </c>
+      <c r="I98" t="s">
         <v>121</v>
       </c>
-      <c r="I98" t="s">
-        <v>122</v>
-      </c>
       <c r="J98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+        <v>122</v>
+      </c>
+      <c r="K98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" t="s">
         <v>45</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
       <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
         <v>49</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
       <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
         <v>96</v>
       </c>
-      <c r="F99" t="s">
-        <v>115</v>
-      </c>
       <c r="G99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99" t="s">
         <v>121</v>
       </c>
-      <c r="I99" t="s">
-        <v>122</v>
-      </c>
       <c r="J99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+        <v>122</v>
+      </c>
+      <c r="K99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" t="s">
         <v>45</v>
       </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
       <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
         <v>50</v>
       </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
       <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
         <v>100</v>
       </c>
-      <c r="F100" t="s">
-        <v>115</v>
-      </c>
       <c r="G100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H100" t="s">
+        <v>116</v>
+      </c>
+      <c r="I100" t="s">
         <v>121</v>
       </c>
-      <c r="I100" t="s">
-        <v>122</v>
-      </c>
       <c r="J100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="K100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" t="s">
         <v>45</v>
       </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
       <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
         <v>51</v>
       </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
       <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
         <v>94</v>
       </c>
-      <c r="F101" t="s">
-        <v>115</v>
-      </c>
       <c r="G101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H101" t="s">
+        <v>116</v>
+      </c>
+      <c r="I101" t="s">
         <v>121</v>
       </c>
-      <c r="I101" t="s">
-        <v>122</v>
-      </c>
       <c r="J101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="K101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" t="s">
         <v>45</v>
       </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
       <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
         <v>52</v>
       </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
       <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
         <v>93</v>
       </c>
-      <c r="F102" t="s">
-        <v>115</v>
-      </c>
       <c r="G102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I102" t="s">
         <v>121</v>
       </c>
-      <c r="I102" t="s">
-        <v>122</v>
-      </c>
       <c r="J102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="K102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" t="s">
         <v>45</v>
       </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
       <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
         <v>53</v>
       </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
       <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
         <v>95</v>
       </c>
-      <c r="F103" t="s">
-        <v>115</v>
-      </c>
       <c r="G103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I103" t="s">
         <v>121</v>
       </c>
-      <c r="I103" t="s">
-        <v>122</v>
-      </c>
       <c r="J103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="K103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" t="s">
         <v>45</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
       <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
         <v>54</v>
       </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
       <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
         <v>101</v>
       </c>
-      <c r="F104" t="s">
-        <v>115</v>
-      </c>
       <c r="G104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H104" t="s">
+        <v>116</v>
+      </c>
+      <c r="I104" t="s">
         <v>121</v>
       </c>
-      <c r="I104" t="s">
-        <v>122</v>
-      </c>
       <c r="J104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="K104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" t="s">
         <v>45</v>
       </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
       <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
         <v>55</v>
       </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
       <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
         <v>102</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>110</v>
-      </c>
-      <c r="G105" t="s">
-        <v>114</v>
       </c>
       <c r="H105" t="s">
         <v>114</v>
@@ -4169,62 +4835,68 @@
         <v>114</v>
       </c>
       <c r="J105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="K105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" t="s">
         <v>45</v>
       </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
       <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
         <v>21</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
       <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
         <v>93</v>
       </c>
-      <c r="F106" t="s">
-        <v>115</v>
-      </c>
       <c r="G106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H106" t="s">
+        <v>116</v>
+      </c>
+      <c r="I106" t="s">
         <v>121</v>
       </c>
-      <c r="I106" t="s">
-        <v>122</v>
-      </c>
       <c r="J106" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="K106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" t="s">
         <v>45</v>
       </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
       <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
         <v>56</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
       <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
         <v>103</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>110</v>
-      </c>
-      <c r="G107" t="s">
-        <v>114</v>
       </c>
       <c r="H107" t="s">
         <v>114</v>
@@ -4233,358 +4905,394 @@
         <v>114</v>
       </c>
       <c r="J107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="K107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" t="s">
         <v>45</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
       <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
         <v>22</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
       <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
         <v>95</v>
       </c>
-      <c r="F108" t="s">
-        <v>115</v>
-      </c>
       <c r="G108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H108" t="s">
+        <v>116</v>
+      </c>
+      <c r="I108" t="s">
         <v>121</v>
       </c>
-      <c r="I108" t="s">
-        <v>122</v>
-      </c>
       <c r="J108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="K108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" t="s">
         <v>45</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
       <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
         <v>23</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
       <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
         <v>92</v>
       </c>
-      <c r="F109" t="s">
-        <v>115</v>
-      </c>
       <c r="G109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H109" t="s">
+        <v>116</v>
+      </c>
+      <c r="I109" t="s">
         <v>121</v>
       </c>
-      <c r="I109" t="s">
-        <v>122</v>
-      </c>
       <c r="J109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="K109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" t="s">
         <v>45</v>
       </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
       <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
         <v>24</v>
       </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
       <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
         <v>94</v>
       </c>
-      <c r="F110" t="s">
-        <v>115</v>
-      </c>
       <c r="G110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H110" t="s">
+        <v>116</v>
+      </c>
+      <c r="I110" t="s">
         <v>121</v>
       </c>
-      <c r="I110" t="s">
-        <v>122</v>
-      </c>
       <c r="J110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="K110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" t="s">
         <v>45</v>
       </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
       <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
         <v>25</v>
       </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
       <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
         <v>93</v>
       </c>
-      <c r="F111" t="s">
-        <v>115</v>
-      </c>
       <c r="G111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H111" t="s">
+        <v>116</v>
+      </c>
+      <c r="I111" t="s">
         <v>121</v>
       </c>
-      <c r="I111" t="s">
-        <v>122</v>
-      </c>
       <c r="J111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="K111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" t="s">
         <v>45</v>
       </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
       <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
         <v>26</v>
       </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
       <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
         <v>95</v>
       </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
       <c r="G112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H112" t="s">
+        <v>116</v>
+      </c>
+      <c r="I112" t="s">
         <v>121</v>
       </c>
-      <c r="I112" t="s">
-        <v>122</v>
-      </c>
       <c r="J112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="K112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" t="s">
         <v>45</v>
       </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
       <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>27</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
       <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
         <v>93</v>
       </c>
-      <c r="F113" t="s">
-        <v>115</v>
-      </c>
       <c r="G113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I113" t="s">
         <v>121</v>
       </c>
-      <c r="I113" t="s">
-        <v>122</v>
-      </c>
       <c r="J113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="K113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" t="s">
         <v>57</v>
       </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
       <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" t="s">
-        <v>7</v>
-      </c>
       <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
         <v>104</v>
       </c>
-      <c r="F114" t="s">
-        <v>115</v>
-      </c>
       <c r="G114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H114" t="s">
+        <v>116</v>
+      </c>
+      <c r="I114" t="s">
         <v>120</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>119</v>
       </c>
-      <c r="J114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="K114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" t="s">
         <v>57</v>
       </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
       <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
         <v>9</v>
       </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
       <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
         <v>104</v>
       </c>
-      <c r="F115" t="s">
-        <v>115</v>
-      </c>
       <c r="G115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H115" t="s">
+        <v>116</v>
+      </c>
+      <c r="I115" t="s">
         <v>120</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>119</v>
       </c>
-      <c r="J115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="K115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" t="s">
         <v>57</v>
       </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
       <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
         <v>21</v>
       </c>
-      <c r="D116" t="s">
-        <v>7</v>
-      </c>
       <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
         <v>104</v>
       </c>
-      <c r="F116" t="s">
-        <v>115</v>
-      </c>
       <c r="G116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H116" t="s">
+        <v>116</v>
+      </c>
+      <c r="I116" t="s">
         <v>120</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>119</v>
       </c>
-      <c r="J116" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="K116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" t="s">
         <v>57</v>
       </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
       <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
         <v>22</v>
       </c>
-      <c r="D117" t="s">
-        <v>7</v>
-      </c>
       <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
         <v>104</v>
       </c>
-      <c r="F117" t="s">
-        <v>115</v>
-      </c>
       <c r="G117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H117" t="s">
+        <v>116</v>
+      </c>
+      <c r="I117" t="s">
         <v>120</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>119</v>
       </c>
-      <c r="J117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="K117" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" t="s">
         <v>57</v>
       </c>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
       <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
         <v>23</v>
       </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
       <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
         <v>104</v>
       </c>
-      <c r="F118" t="s">
-        <v>115</v>
-      </c>
       <c r="G118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H118" t="s">
+        <v>116</v>
+      </c>
+      <c r="I118" t="s">
         <v>120</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>119</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>113</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144E01E-C6B7-A944-8935-08FF8FA634B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC927319-81B8-9546-95C6-C5DEF5490203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1157,13 +1157,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="260" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="G107" zoomScale="260" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">

--- a/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC927319-81B8-9546-95C6-C5DEF5490203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C52F1D-5485-F54A-9618-872BBFB779C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G107" zoomScale="260" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="260" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2839,10 +2839,10 @@
         <v>116</v>
       </c>
       <c r="I48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" t="s">
         <v>125</v>
-      </c>
-      <c r="J48" t="s">
-        <v>126</v>
       </c>
       <c r="K48" t="s">
         <v>113</v>
@@ -2874,10 +2874,10 @@
         <v>116</v>
       </c>
       <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" t="s">
         <v>125</v>
-      </c>
-      <c r="J49" t="s">
-        <v>126</v>
       </c>
       <c r="K49" t="s">
         <v>113</v>
@@ -2909,10 +2909,10 @@
         <v>116</v>
       </c>
       <c r="I50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" t="s">
         <v>125</v>
-      </c>
-      <c r="J50" t="s">
-        <v>126</v>
       </c>
       <c r="K50" t="s">
         <v>113</v>

--- a/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C52F1D-5485-F54A-9618-872BBFB779C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC5FC97-C8E0-C04B-89A8-DEA6DF86B26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="244">
   <si>
     <t>DOI</t>
   </si>
@@ -379,12 +379,6 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
     <t>Cell count</t>
   </si>
   <si>
@@ -755,6 +749,9 @@
   </si>
   <si>
     <t>10.1126:sciimmunol.adj5792_log_fig5</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="260" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:J50"/>
+    <sheetView tabSelected="1" topLeftCell="H104" zoomScale="260" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115:J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1167,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1205,7 +1202,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1240,7 +1237,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1275,7 +1272,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1415,7 +1412,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1450,7 +1447,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1485,7 +1482,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1590,7 +1587,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1625,7 +1622,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1695,7 +1692,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1765,7 +1762,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1800,7 +1797,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1870,7 +1867,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1940,7 +1937,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1999,10 +1996,10 @@
         <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
         <v>113</v>
@@ -2010,7 +2007,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -2034,10 +2031,10 @@
         <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
         <v>113</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -2069,10 +2066,10 @@
         <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s">
         <v>113</v>
@@ -2080,7 +2077,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2139,10 +2136,10 @@
         <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s">
         <v>113</v>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2174,10 +2171,10 @@
         <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="K29" t="s">
         <v>113</v>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2209,10 +2206,10 @@
         <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="K30" t="s">
         <v>113</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2244,10 +2241,10 @@
         <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
         <v>113</v>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -2279,10 +2276,10 @@
         <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
         <v>113</v>
@@ -2290,7 +2287,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -2314,10 +2311,10 @@
         <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s">
         <v>113</v>
@@ -2325,7 +2322,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -2349,10 +2346,10 @@
         <v>116</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s">
         <v>113</v>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2384,10 +2381,10 @@
         <v>116</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s">
         <v>113</v>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -2422,7 +2419,7 @@
         <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K36" t="s">
         <v>113</v>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2524,10 +2521,10 @@
         <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K39" t="s">
         <v>113</v>
@@ -2535,7 +2532,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -2559,10 +2556,10 @@
         <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K40" t="s">
         <v>113</v>
@@ -2570,7 +2567,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -2594,10 +2591,10 @@
         <v>116</v>
       </c>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s">
         <v>113</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -2629,10 +2626,10 @@
         <v>116</v>
       </c>
       <c r="I42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K42" t="s">
         <v>113</v>
@@ -2640,7 +2637,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -2664,10 +2661,10 @@
         <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K43" t="s">
         <v>113</v>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -2699,10 +2696,10 @@
         <v>116</v>
       </c>
       <c r="I44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K44" t="s">
         <v>113</v>
@@ -2710,7 +2707,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -2734,10 +2731,10 @@
         <v>116</v>
       </c>
       <c r="I45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s">
         <v>113</v>
@@ -2745,7 +2742,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
@@ -2769,10 +2766,10 @@
         <v>116</v>
       </c>
       <c r="I46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K46" t="s">
         <v>113</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -2804,10 +2801,10 @@
         <v>116</v>
       </c>
       <c r="I47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s">
         <v>113</v>
@@ -2815,7 +2812,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -2839,10 +2836,10 @@
         <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K48" t="s">
         <v>113</v>
@@ -2850,7 +2847,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
@@ -2874,10 +2871,10 @@
         <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K49" t="s">
         <v>113</v>
@@ -2885,7 +2882,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2909,10 +2906,10 @@
         <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K50" t="s">
         <v>113</v>
@@ -2920,7 +2917,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2990,7 +2987,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3025,7 +3022,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -3060,7 +3057,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -3130,7 +3127,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -3165,7 +3162,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -3200,7 +3197,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -3224,10 +3221,10 @@
         <v>116</v>
       </c>
       <c r="I59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s">
         <v>113</v>
@@ -3235,7 +3232,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -3259,10 +3256,10 @@
         <v>116</v>
       </c>
       <c r="I60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s">
         <v>113</v>
@@ -3270,7 +3267,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -3329,10 +3326,10 @@
         <v>116</v>
       </c>
       <c r="I62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K62" t="s">
         <v>113</v>
@@ -3340,7 +3337,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
@@ -3364,10 +3361,10 @@
         <v>116</v>
       </c>
       <c r="I63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K63" t="s">
         <v>113</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -3399,10 +3396,10 @@
         <v>116</v>
       </c>
       <c r="I64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s">
         <v>113</v>
@@ -3410,7 +3407,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
@@ -3434,10 +3431,10 @@
         <v>116</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K65" t="s">
         <v>113</v>
@@ -3445,7 +3442,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
@@ -3469,10 +3466,10 @@
         <v>116</v>
       </c>
       <c r="I66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K66" t="s">
         <v>113</v>
@@ -3480,7 +3477,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
@@ -3504,10 +3501,10 @@
         <v>116</v>
       </c>
       <c r="I67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K67" t="s">
         <v>113</v>
@@ -3515,7 +3512,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
         <v>41</v>
@@ -3539,10 +3536,10 @@
         <v>116</v>
       </c>
       <c r="I68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K68" t="s">
         <v>113</v>
@@ -3550,7 +3547,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3574,10 +3571,10 @@
         <v>116</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K69" t="s">
         <v>113</v>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3609,10 +3606,10 @@
         <v>116</v>
       </c>
       <c r="I70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K70" t="s">
         <v>113</v>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3644,10 +3641,10 @@
         <v>116</v>
       </c>
       <c r="I71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K71" t="s">
         <v>113</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
         <v>41</v>
@@ -3679,10 +3676,10 @@
         <v>116</v>
       </c>
       <c r="I72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K72" t="s">
         <v>113</v>
@@ -3690,7 +3687,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3714,10 +3711,10 @@
         <v>116</v>
       </c>
       <c r="I73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K73" t="s">
         <v>113</v>
@@ -3725,7 +3722,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -3749,10 +3746,10 @@
         <v>116</v>
       </c>
       <c r="I74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K74" t="s">
         <v>113</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
         <v>41</v>
@@ -3784,10 +3781,10 @@
         <v>116</v>
       </c>
       <c r="I75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K75" t="s">
         <v>113</v>
@@ -3795,7 +3792,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
@@ -3819,10 +3816,10 @@
         <v>116</v>
       </c>
       <c r="I76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K76" t="s">
         <v>113</v>
@@ -3830,7 +3827,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3865,7 +3862,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3935,7 +3932,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3970,7 +3967,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
         <v>43</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
@@ -4040,7 +4037,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -4064,10 +4061,10 @@
         <v>116</v>
       </c>
       <c r="I83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J83" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K83" t="s">
         <v>113</v>
@@ -4075,7 +4072,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
         <v>45</v>
@@ -4099,10 +4096,10 @@
         <v>116</v>
       </c>
       <c r="I84" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K84" t="s">
         <v>113</v>
@@ -4110,7 +4107,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
@@ -4134,10 +4131,10 @@
         <v>116</v>
       </c>
       <c r="I85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J85" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K85" t="s">
         <v>113</v>
@@ -4145,7 +4142,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86" t="s">
         <v>45</v>
@@ -4169,10 +4166,10 @@
         <v>116</v>
       </c>
       <c r="I86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K86" t="s">
         <v>113</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B87" t="s">
         <v>45</v>
@@ -4204,10 +4201,10 @@
         <v>116</v>
       </c>
       <c r="I87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K87" t="s">
         <v>113</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -4239,10 +4236,10 @@
         <v>116</v>
       </c>
       <c r="I88" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K88" t="s">
         <v>113</v>
@@ -4250,7 +4247,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
         <v>45</v>
@@ -4274,10 +4271,10 @@
         <v>116</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K89" t="s">
         <v>113</v>
@@ -4285,7 +4282,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
         <v>45</v>
@@ -4309,10 +4306,10 @@
         <v>116</v>
       </c>
       <c r="I90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K90" t="s">
         <v>113</v>
@@ -4320,7 +4317,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
         <v>45</v>
@@ -4344,10 +4341,10 @@
         <v>116</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K91" t="s">
         <v>113</v>
@@ -4355,7 +4352,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B92" t="s">
         <v>45</v>
@@ -4379,10 +4376,10 @@
         <v>116</v>
       </c>
       <c r="I92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K92" t="s">
         <v>113</v>
@@ -4390,7 +4387,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B93" t="s">
         <v>45</v>
@@ -4414,10 +4411,10 @@
         <v>116</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K93" t="s">
         <v>113</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
         <v>45</v>
@@ -4449,10 +4446,10 @@
         <v>116</v>
       </c>
       <c r="I94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J94" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K94" t="s">
         <v>113</v>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B95" t="s">
         <v>45</v>
@@ -4484,10 +4481,10 @@
         <v>116</v>
       </c>
       <c r="I95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K95" t="s">
         <v>113</v>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s">
         <v>45</v>
@@ -4519,10 +4516,10 @@
         <v>116</v>
       </c>
       <c r="I96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K96" t="s">
         <v>113</v>
@@ -4530,7 +4527,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B97" t="s">
         <v>45</v>
@@ -4554,10 +4551,10 @@
         <v>116</v>
       </c>
       <c r="I97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K97" t="s">
         <v>113</v>
@@ -4565,7 +4562,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
         <v>45</v>
@@ -4589,10 +4586,10 @@
         <v>116</v>
       </c>
       <c r="I98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J98" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K98" t="s">
         <v>113</v>
@@ -4600,7 +4597,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B99" t="s">
         <v>45</v>
@@ -4624,10 +4621,10 @@
         <v>116</v>
       </c>
       <c r="I99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K99" t="s">
         <v>113</v>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
         <v>45</v>
@@ -4659,10 +4656,10 @@
         <v>116</v>
       </c>
       <c r="I100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J100" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K100" t="s">
         <v>113</v>
@@ -4670,7 +4667,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
         <v>45</v>
@@ -4694,10 +4691,10 @@
         <v>116</v>
       </c>
       <c r="I101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K101" t="s">
         <v>113</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
         <v>45</v>
@@ -4729,10 +4726,10 @@
         <v>116</v>
       </c>
       <c r="I102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K102" t="s">
         <v>113</v>
@@ -4740,7 +4737,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
         <v>45</v>
@@ -4764,10 +4761,10 @@
         <v>116</v>
       </c>
       <c r="I103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K103" t="s">
         <v>113</v>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
         <v>45</v>
@@ -4799,10 +4796,10 @@
         <v>116</v>
       </c>
       <c r="I104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J104" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K104" t="s">
         <v>113</v>
@@ -4810,7 +4807,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
         <v>45</v>
@@ -4845,7 +4842,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B106" t="s">
         <v>45</v>
@@ -4869,10 +4866,10 @@
         <v>116</v>
       </c>
       <c r="I106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K106" t="s">
         <v>113</v>
@@ -4880,7 +4877,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B107" t="s">
         <v>45</v>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B108" t="s">
         <v>45</v>
@@ -4939,10 +4936,10 @@
         <v>116</v>
       </c>
       <c r="I108" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K108" t="s">
         <v>113</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B109" t="s">
         <v>45</v>
@@ -4974,10 +4971,10 @@
         <v>116</v>
       </c>
       <c r="I109" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K109" t="s">
         <v>113</v>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -5009,10 +5006,10 @@
         <v>116</v>
       </c>
       <c r="I110" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J110" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K110" t="s">
         <v>113</v>
@@ -5020,7 +5017,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B111" t="s">
         <v>45</v>
@@ -5044,10 +5041,10 @@
         <v>116</v>
       </c>
       <c r="I111" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J111" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K111" t="s">
         <v>113</v>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B112" t="s">
         <v>45</v>
@@ -5079,10 +5076,10 @@
         <v>116</v>
       </c>
       <c r="I112" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K112" t="s">
         <v>113</v>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s">
         <v>45</v>
@@ -5114,10 +5111,10 @@
         <v>116</v>
       </c>
       <c r="I113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K113" t="s">
         <v>113</v>
@@ -5125,7 +5122,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -5149,10 +5146,10 @@
         <v>116</v>
       </c>
       <c r="I114" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="J114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K114" t="s">
         <v>113</v>
@@ -5160,7 +5157,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
@@ -5184,10 +5181,10 @@
         <v>116</v>
       </c>
       <c r="I115" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="J115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K115" t="s">
         <v>113</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
@@ -5219,10 +5216,10 @@
         <v>116</v>
       </c>
       <c r="I116" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="J116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K116" t="s">
         <v>113</v>
@@ -5230,7 +5227,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
@@ -5254,10 +5251,10 @@
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="J117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K117" t="s">
         <v>113</v>
@@ -5265,7 +5262,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B118" t="s">
         <v>57</v>
@@ -5289,10 +5286,10 @@
         <v>116</v>
       </c>
       <c r="I118" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="J118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K118" t="s">
         <v>113</v>

--- a/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC5FC97-C8E0-C04B-89A8-DEA6DF86B26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F4948-64CD-C34A-AF6B-4B0614D7AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,9 +388,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>Colony count</t>
-  </si>
-  <si>
     <t>Bioluminescence</t>
   </si>
   <si>
@@ -752,6 +749,9 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>Titer</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H104" zoomScale="260" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115:J118"/>
+    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="189" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1996,10 +1996,10 @@
         <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
         <v>113</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -2031,10 +2031,10 @@
         <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s">
         <v>113</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -2066,10 +2066,10 @@
         <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s">
         <v>113</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2241,10 +2241,10 @@
         <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K31" t="s">
         <v>113</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -2311,10 +2311,10 @@
         <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s">
         <v>113</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -2346,10 +2346,10 @@
         <v>116</v>
       </c>
       <c r="I34" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K34" t="s">
         <v>113</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2381,10 +2381,10 @@
         <v>116</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K35" t="s">
         <v>113</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -2836,10 +2836,10 @@
         <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K48" t="s">
         <v>113</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
@@ -2871,10 +2871,10 @@
         <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K49" t="s">
         <v>113</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2906,10 +2906,10 @@
         <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K50" t="s">
         <v>113</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -3396,10 +3396,10 @@
         <v>116</v>
       </c>
       <c r="I64" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K64" t="s">
         <v>113</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
@@ -3431,10 +3431,10 @@
         <v>116</v>
       </c>
       <c r="I65" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K65" t="s">
         <v>113</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
@@ -3466,10 +3466,10 @@
         <v>116</v>
       </c>
       <c r="I66" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K66" t="s">
         <v>113</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
@@ -3501,10 +3501,10 @@
         <v>116</v>
       </c>
       <c r="I67" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K67" t="s">
         <v>113</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
         <v>41</v>
@@ -3536,10 +3536,10 @@
         <v>116</v>
       </c>
       <c r="I68" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K68" t="s">
         <v>113</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3571,10 +3571,10 @@
         <v>116</v>
       </c>
       <c r="I69" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K69" t="s">
         <v>113</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3606,10 +3606,10 @@
         <v>116</v>
       </c>
       <c r="I70" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K70" t="s">
         <v>113</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3641,10 +3641,10 @@
         <v>116</v>
       </c>
       <c r="I71" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K71" t="s">
         <v>113</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
         <v>41</v>
@@ -3676,10 +3676,10 @@
         <v>116</v>
       </c>
       <c r="I72" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K72" t="s">
         <v>113</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3711,10 +3711,10 @@
         <v>116</v>
       </c>
       <c r="I73" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K73" t="s">
         <v>113</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -3746,10 +3746,10 @@
         <v>116</v>
       </c>
       <c r="I74" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K74" t="s">
         <v>113</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
         <v>41</v>
@@ -3781,10 +3781,10 @@
         <v>116</v>
       </c>
       <c r="I75" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K75" t="s">
         <v>113</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
@@ -3816,10 +3816,10 @@
         <v>116</v>
       </c>
       <c r="I76" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="J76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K76" t="s">
         <v>113</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
         <v>43</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B84" t="s">
         <v>45</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
         <v>45</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
         <v>45</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
         <v>45</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" t="s">
         <v>45</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
         <v>45</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
         <v>45</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s">
         <v>45</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" t="s">
         <v>45</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s">
         <v>45</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" t="s">
         <v>45</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s">
         <v>45</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
         <v>45</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
         <v>45</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s">
         <v>45</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" t="s">
         <v>45</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
         <v>45</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
         <v>45</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B104" t="s">
         <v>45</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B105" t="s">
         <v>45</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B106" t="s">
         <v>45</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B107" t="s">
         <v>45</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" t="s">
         <v>45</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B109" t="s">
         <v>45</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B111" t="s">
         <v>45</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B112" t="s">
         <v>45</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B113" t="s">
         <v>45</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -5146,7 +5146,7 @@
         <v>116</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J114" t="s">
         <v>118</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
@@ -5181,7 +5181,7 @@
         <v>116</v>
       </c>
       <c r="I115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J115" t="s">
         <v>118</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
@@ -5216,7 +5216,7 @@
         <v>116</v>
       </c>
       <c r="I116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J116" t="s">
         <v>118</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
@@ -5251,7 +5251,7 @@
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J117" t="s">
         <v>118</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B118" t="s">
         <v>57</v>
@@ -5286,7 +5286,7 @@
         <v>116</v>
       </c>
       <c r="I118" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J118" t="s">
         <v>118</v>

--- a/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F4948-64CD-C34A-AF6B-4B0614D7AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4EB1EF-9EFF-9D41-997F-D0043A8B9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>10.1126:sciimmunol.adj5792</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>% Tetramer-positive cells of total CD8+ cells</t>
   </si>
   <si>
@@ -343,12 +340,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -752,6 +743,15 @@
   </si>
   <si>
     <t>Titer</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="189" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1182,27 +1182,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1217,27 +1217,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1252,27 +1252,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1287,27 +1287,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1322,27 +1322,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" t="s">
-        <v>118</v>
-      </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1357,27 +1357,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" t="s">
         <v>115</v>
       </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" t="s">
-        <v>118</v>
-      </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1392,27 +1392,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" t="s">
-        <v>118</v>
-      </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1427,27 +1427,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" t="s">
         <v>115</v>
       </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" t="s">
-        <v>118</v>
-      </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1462,27 +1462,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
         <v>115</v>
       </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" t="s">
-        <v>118</v>
-      </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1497,27 +1497,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
         <v>115</v>
       </c>
-      <c r="H10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" t="s">
-        <v>118</v>
-      </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1532,27 +1532,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
         <v>115</v>
       </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" t="s">
-        <v>118</v>
-      </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1567,27 +1567,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" t="s">
-        <v>118</v>
-      </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1602,27 +1602,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
         <v>115</v>
       </c>
-      <c r="H13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1637,27 +1637,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
         <v>115</v>
       </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" t="s">
-        <v>118</v>
-      </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1672,27 +1672,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
         <v>115</v>
       </c>
-      <c r="H15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" t="s">
-        <v>118</v>
-      </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1707,27 +1707,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
         <v>115</v>
       </c>
-      <c r="H16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" t="s">
-        <v>118</v>
-      </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1742,27 +1742,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
         <v>115</v>
       </c>
-      <c r="H17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" t="s">
-        <v>118</v>
-      </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1777,27 +1777,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
         <v>115</v>
       </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" t="s">
-        <v>118</v>
-      </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1812,27 +1812,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" t="s">
         <v>115</v>
       </c>
-      <c r="H19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" t="s">
-        <v>118</v>
-      </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1847,27 +1847,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
         <v>115</v>
       </c>
-      <c r="H20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" t="s">
-        <v>118</v>
-      </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1882,27 +1882,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
         <v>115</v>
       </c>
-      <c r="H21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" t="s">
-        <v>118</v>
-      </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1917,27 +1917,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" t="s">
         <v>115</v>
       </c>
-      <c r="H22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" t="s">
-        <v>118</v>
-      </c>
       <c r="K22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1952,27 +1952,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" t="s">
         <v>115</v>
       </c>
-      <c r="H23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" t="s">
-        <v>118</v>
-      </c>
       <c r="K23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1987,27 +1987,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
         <v>115</v>
       </c>
-      <c r="H24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J24" t="s">
-        <v>118</v>
-      </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -2022,27 +2022,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
         <v>115</v>
       </c>
-      <c r="H25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" t="s">
-        <v>243</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
-      </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -2057,27 +2057,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
         <v>115</v>
       </c>
-      <c r="H26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" t="s">
-        <v>243</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
-      </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -2092,27 +2092,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2127,27 +2127,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2162,27 +2162,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2197,27 +2197,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2232,27 +2232,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
         <v>115</v>
       </c>
-      <c r="H31" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" t="s">
-        <v>243</v>
-      </c>
-      <c r="J31" t="s">
-        <v>118</v>
-      </c>
       <c r="K31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -2267,27 +2267,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" t="s">
         <v>116</v>
       </c>
-      <c r="I32" t="s">
-        <v>119</v>
-      </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -2302,27 +2302,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
         <v>115</v>
       </c>
-      <c r="H33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" t="s">
-        <v>243</v>
-      </c>
-      <c r="J33" t="s">
-        <v>118</v>
-      </c>
       <c r="K33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -2337,27 +2337,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
         <v>115</v>
       </c>
-      <c r="H34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" t="s">
-        <v>243</v>
-      </c>
-      <c r="J34" t="s">
-        <v>118</v>
-      </c>
       <c r="K34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2372,27 +2372,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" t="s">
         <v>115</v>
       </c>
-      <c r="H35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" t="s">
-        <v>243</v>
-      </c>
-      <c r="J35" t="s">
-        <v>118</v>
-      </c>
       <c r="K35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -2407,27 +2407,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -2442,27 +2442,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2477,27 +2477,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2512,27 +2512,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
         <v>116</v>
       </c>
-      <c r="I39" t="s">
-        <v>119</v>
-      </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -2547,27 +2547,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" t="s">
         <v>116</v>
       </c>
-      <c r="I40" t="s">
-        <v>119</v>
-      </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -2582,27 +2582,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" t="s">
         <v>116</v>
       </c>
-      <c r="I41" t="s">
-        <v>119</v>
-      </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -2617,27 +2617,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
         <v>116</v>
       </c>
-      <c r="I42" t="s">
-        <v>119</v>
-      </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -2652,27 +2652,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" t="s">
         <v>116</v>
       </c>
-      <c r="I43" t="s">
-        <v>119</v>
-      </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -2687,27 +2687,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H44" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" t="s">
         <v>116</v>
       </c>
-      <c r="I44" t="s">
-        <v>119</v>
-      </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -2722,27 +2722,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" t="s">
         <v>116</v>
       </c>
-      <c r="I45" t="s">
-        <v>119</v>
-      </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
@@ -2757,27 +2757,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" t="s">
         <v>116</v>
       </c>
-      <c r="I46" t="s">
-        <v>119</v>
-      </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -2792,27 +2792,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" t="s">
         <v>116</v>
       </c>
-      <c r="I47" t="s">
-        <v>119</v>
-      </c>
       <c r="J47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -2827,27 +2827,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
@@ -2862,27 +2862,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2897,27 +2897,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2932,27 +2932,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2967,27 +2967,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" t="s">
         <v>115</v>
       </c>
-      <c r="H52" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" t="s">
-        <v>118</v>
-      </c>
       <c r="K52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3002,27 +3002,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" t="s">
         <v>115</v>
       </c>
-      <c r="H53" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" t="s">
-        <v>117</v>
-      </c>
-      <c r="J53" t="s">
-        <v>118</v>
-      </c>
       <c r="K53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -3037,27 +3037,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" t="s">
         <v>115</v>
       </c>
-      <c r="H54" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" t="s">
-        <v>117</v>
-      </c>
-      <c r="J54" t="s">
-        <v>118</v>
-      </c>
       <c r="K54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -3072,27 +3072,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -3107,27 +3107,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -3142,27 +3142,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -3177,27 +3177,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" t="s">
+        <v>114</v>
+      </c>
+      <c r="J58" t="s">
         <v>115</v>
       </c>
-      <c r="H58" t="s">
-        <v>116</v>
-      </c>
-      <c r="I58" t="s">
-        <v>117</v>
-      </c>
-      <c r="J58" t="s">
-        <v>118</v>
-      </c>
       <c r="K58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -3212,27 +3212,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" t="s">
         <v>116</v>
       </c>
-      <c r="I59" t="s">
-        <v>119</v>
-      </c>
       <c r="J59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -3247,27 +3247,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H60" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" t="s">
         <v>116</v>
       </c>
-      <c r="I60" t="s">
-        <v>119</v>
-      </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3282,27 +3282,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -3317,27 +3317,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
@@ -3352,27 +3352,27 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -3387,27 +3387,27 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" t="s">
+        <v>113</v>
+      </c>
+      <c r="I64" t="s">
+        <v>240</v>
+      </c>
+      <c r="J64" t="s">
         <v>115</v>
       </c>
-      <c r="H64" t="s">
-        <v>116</v>
-      </c>
-      <c r="I64" t="s">
-        <v>243</v>
-      </c>
-      <c r="J64" t="s">
-        <v>118</v>
-      </c>
       <c r="K64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
@@ -3422,27 +3422,27 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" t="s">
+        <v>240</v>
+      </c>
+      <c r="J65" t="s">
         <v>115</v>
       </c>
-      <c r="H65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I65" t="s">
-        <v>243</v>
-      </c>
-      <c r="J65" t="s">
-        <v>118</v>
-      </c>
       <c r="K65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
@@ -3457,27 +3457,27 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" t="s">
+        <v>240</v>
+      </c>
+      <c r="J66" t="s">
         <v>115</v>
       </c>
-      <c r="H66" t="s">
-        <v>116</v>
-      </c>
-      <c r="I66" t="s">
-        <v>243</v>
-      </c>
-      <c r="J66" t="s">
-        <v>118</v>
-      </c>
       <c r="K66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
@@ -3492,27 +3492,27 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" t="s">
+        <v>240</v>
+      </c>
+      <c r="J67" t="s">
         <v>115</v>
       </c>
-      <c r="H67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" t="s">
-        <v>243</v>
-      </c>
-      <c r="J67" t="s">
-        <v>118</v>
-      </c>
       <c r="K67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
         <v>41</v>
@@ -3527,27 +3527,27 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" t="s">
+        <v>240</v>
+      </c>
+      <c r="J68" t="s">
         <v>115</v>
       </c>
-      <c r="H68" t="s">
-        <v>116</v>
-      </c>
-      <c r="I68" t="s">
-        <v>243</v>
-      </c>
-      <c r="J68" t="s">
-        <v>118</v>
-      </c>
       <c r="K68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3562,27 +3562,27 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" t="s">
+        <v>240</v>
+      </c>
+      <c r="J69" t="s">
         <v>115</v>
       </c>
-      <c r="H69" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" t="s">
-        <v>243</v>
-      </c>
-      <c r="J69" t="s">
-        <v>118</v>
-      </c>
       <c r="K69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3597,27 +3597,27 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70" t="s">
+        <v>240</v>
+      </c>
+      <c r="J70" t="s">
         <v>115</v>
       </c>
-      <c r="H70" t="s">
-        <v>116</v>
-      </c>
-      <c r="I70" t="s">
-        <v>243</v>
-      </c>
-      <c r="J70" t="s">
-        <v>118</v>
-      </c>
       <c r="K70" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3632,27 +3632,27 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" t="s">
+        <v>113</v>
+      </c>
+      <c r="I71" t="s">
+        <v>240</v>
+      </c>
+      <c r="J71" t="s">
         <v>115</v>
       </c>
-      <c r="H71" t="s">
-        <v>116</v>
-      </c>
-      <c r="I71" t="s">
-        <v>243</v>
-      </c>
-      <c r="J71" t="s">
-        <v>118</v>
-      </c>
       <c r="K71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
         <v>41</v>
@@ -3667,27 +3667,27 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" t="s">
+        <v>113</v>
+      </c>
+      <c r="I72" t="s">
+        <v>240</v>
+      </c>
+      <c r="J72" t="s">
         <v>115</v>
       </c>
-      <c r="H72" t="s">
-        <v>116</v>
-      </c>
-      <c r="I72" t="s">
-        <v>243</v>
-      </c>
-      <c r="J72" t="s">
-        <v>118</v>
-      </c>
       <c r="K72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3702,27 +3702,27 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" t="s">
+        <v>240</v>
+      </c>
+      <c r="J73" t="s">
         <v>115</v>
       </c>
-      <c r="H73" t="s">
-        <v>116</v>
-      </c>
-      <c r="I73" t="s">
-        <v>243</v>
-      </c>
-      <c r="J73" t="s">
-        <v>118</v>
-      </c>
       <c r="K73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -3737,27 +3737,27 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74" t="s">
+        <v>240</v>
+      </c>
+      <c r="J74" t="s">
         <v>115</v>
       </c>
-      <c r="H74" t="s">
-        <v>116</v>
-      </c>
-      <c r="I74" t="s">
-        <v>243</v>
-      </c>
-      <c r="J74" t="s">
-        <v>118</v>
-      </c>
       <c r="K74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
         <v>41</v>
@@ -3772,27 +3772,27 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s">
+        <v>112</v>
+      </c>
+      <c r="H75" t="s">
+        <v>113</v>
+      </c>
+      <c r="I75" t="s">
+        <v>240</v>
+      </c>
+      <c r="J75" t="s">
         <v>115</v>
       </c>
-      <c r="H75" t="s">
-        <v>116</v>
-      </c>
-      <c r="I75" t="s">
-        <v>243</v>
-      </c>
-      <c r="J75" t="s">
-        <v>118</v>
-      </c>
       <c r="K75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
@@ -3807,27 +3807,27 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" t="s">
+        <v>240</v>
+      </c>
+      <c r="J76" t="s">
         <v>115</v>
       </c>
-      <c r="H76" t="s">
-        <v>116</v>
-      </c>
-      <c r="I76" t="s">
-        <v>243</v>
-      </c>
-      <c r="J76" t="s">
-        <v>118</v>
-      </c>
       <c r="K76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3842,27 +3842,27 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3877,27 +3877,27 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3912,27 +3912,27 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3947,27 +3947,27 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
         <v>43</v>
@@ -3982,27 +3982,27 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
@@ -4017,27 +4017,27 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -4052,27 +4052,27 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H83" t="s">
+        <v>113</v>
+      </c>
+      <c r="I83" t="s">
         <v>116</v>
       </c>
-      <c r="I83" t="s">
-        <v>119</v>
-      </c>
       <c r="J83" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B84" t="s">
         <v>45</v>
@@ -4087,27 +4087,27 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H84" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" t="s">
         <v>116</v>
       </c>
-      <c r="I84" t="s">
-        <v>119</v>
-      </c>
       <c r="J84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
@@ -4122,27 +4122,27 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H85" t="s">
+        <v>113</v>
+      </c>
+      <c r="I85" t="s">
         <v>116</v>
       </c>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
       <c r="J85" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B86" t="s">
         <v>45</v>
@@ -4157,27 +4157,27 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H86" t="s">
+        <v>113</v>
+      </c>
+      <c r="I86" t="s">
         <v>116</v>
       </c>
-      <c r="I86" t="s">
-        <v>119</v>
-      </c>
       <c r="J86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B87" t="s">
         <v>45</v>
@@ -4192,27 +4192,27 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H87" t="s">
+        <v>113</v>
+      </c>
+      <c r="I87" t="s">
         <v>116</v>
       </c>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
       <c r="J87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K87" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -4227,27 +4227,27 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H88" t="s">
+        <v>113</v>
+      </c>
+      <c r="I88" t="s">
         <v>116</v>
       </c>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
       <c r="J88" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K88" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B89" t="s">
         <v>45</v>
@@ -4262,27 +4262,27 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H89" t="s">
+        <v>113</v>
+      </c>
+      <c r="I89" t="s">
         <v>116</v>
       </c>
-      <c r="I89" t="s">
-        <v>119</v>
-      </c>
       <c r="J89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K89" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B90" t="s">
         <v>45</v>
@@ -4297,27 +4297,27 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H90" t="s">
+        <v>113</v>
+      </c>
+      <c r="I90" t="s">
         <v>116</v>
       </c>
-      <c r="I90" t="s">
-        <v>119</v>
-      </c>
       <c r="J90" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K90" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B91" t="s">
         <v>45</v>
@@ -4332,27 +4332,27 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H91" t="s">
+        <v>113</v>
+      </c>
+      <c r="I91" t="s">
         <v>116</v>
       </c>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
       <c r="J91" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
         <v>45</v>
@@ -4367,27 +4367,27 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H92" t="s">
+        <v>113</v>
+      </c>
+      <c r="I92" t="s">
         <v>116</v>
       </c>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
       <c r="J92" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K92" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B93" t="s">
         <v>45</v>
@@ -4402,27 +4402,27 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H93" t="s">
+        <v>113</v>
+      </c>
+      <c r="I93" t="s">
         <v>116</v>
       </c>
-      <c r="I93" t="s">
-        <v>119</v>
-      </c>
       <c r="J93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B94" t="s">
         <v>45</v>
@@ -4437,27 +4437,27 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H94" t="s">
+        <v>113</v>
+      </c>
+      <c r="I94" t="s">
         <v>116</v>
       </c>
-      <c r="I94" t="s">
-        <v>119</v>
-      </c>
       <c r="J94" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
         <v>45</v>
@@ -4472,27 +4472,27 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H95" t="s">
+        <v>113</v>
+      </c>
+      <c r="I95" t="s">
         <v>116</v>
       </c>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
       <c r="J95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K95" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B96" t="s">
         <v>45</v>
@@ -4507,27 +4507,27 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G96" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H96" t="s">
+        <v>113</v>
+      </c>
+      <c r="I96" t="s">
         <v>116</v>
       </c>
-      <c r="I96" t="s">
-        <v>119</v>
-      </c>
       <c r="J96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K96" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B97" t="s">
         <v>45</v>
@@ -4542,27 +4542,27 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H97" t="s">
+        <v>113</v>
+      </c>
+      <c r="I97" t="s">
         <v>116</v>
       </c>
-      <c r="I97" t="s">
-        <v>119</v>
-      </c>
       <c r="J97" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K97" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B98" t="s">
         <v>45</v>
@@ -4577,27 +4577,27 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H98" t="s">
+        <v>113</v>
+      </c>
+      <c r="I98" t="s">
         <v>116</v>
       </c>
-      <c r="I98" t="s">
-        <v>119</v>
-      </c>
       <c r="J98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s">
         <v>45</v>
@@ -4612,27 +4612,27 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H99" t="s">
+        <v>113</v>
+      </c>
+      <c r="I99" t="s">
         <v>116</v>
       </c>
-      <c r="I99" t="s">
-        <v>119</v>
-      </c>
       <c r="J99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K99" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B100" t="s">
         <v>45</v>
@@ -4647,27 +4647,27 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H100" t="s">
+        <v>113</v>
+      </c>
+      <c r="I100" t="s">
         <v>116</v>
       </c>
-      <c r="I100" t="s">
-        <v>119</v>
-      </c>
       <c r="J100" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B101" t="s">
         <v>45</v>
@@ -4682,27 +4682,27 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G101" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H101" t="s">
+        <v>113</v>
+      </c>
+      <c r="I101" t="s">
         <v>116</v>
       </c>
-      <c r="I101" t="s">
-        <v>119</v>
-      </c>
       <c r="J101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B102" t="s">
         <v>45</v>
@@ -4717,27 +4717,27 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G102" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H102" t="s">
+        <v>113</v>
+      </c>
+      <c r="I102" t="s">
         <v>116</v>
       </c>
-      <c r="I102" t="s">
-        <v>119</v>
-      </c>
       <c r="J102" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K102" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B103" t="s">
         <v>45</v>
@@ -4752,27 +4752,27 @@
         <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G103" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H103" t="s">
+        <v>113</v>
+      </c>
+      <c r="I103" t="s">
         <v>116</v>
       </c>
-      <c r="I103" t="s">
-        <v>119</v>
-      </c>
       <c r="J103" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K103" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B104" t="s">
         <v>45</v>
@@ -4787,27 +4787,27 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H104" t="s">
+        <v>113</v>
+      </c>
+      <c r="I104" t="s">
         <v>116</v>
       </c>
-      <c r="I104" t="s">
-        <v>119</v>
-      </c>
       <c r="J104" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B105" t="s">
         <v>45</v>
@@ -4822,27 +4822,27 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G105" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B106" t="s">
         <v>45</v>
@@ -4857,27 +4857,27 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H106" t="s">
+        <v>113</v>
+      </c>
+      <c r="I106" t="s">
         <v>116</v>
       </c>
-      <c r="I106" t="s">
-        <v>119</v>
-      </c>
       <c r="J106" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K106" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B107" t="s">
         <v>45</v>
@@ -4892,27 +4892,27 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G107" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H107" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I107" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J107" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B108" t="s">
         <v>45</v>
@@ -4927,27 +4927,27 @@
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G108" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H108" t="s">
+        <v>113</v>
+      </c>
+      <c r="I108" t="s">
         <v>116</v>
       </c>
-      <c r="I108" t="s">
-        <v>119</v>
-      </c>
       <c r="J108" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K108" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B109" t="s">
         <v>45</v>
@@ -4962,27 +4962,27 @@
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H109" t="s">
+        <v>113</v>
+      </c>
+      <c r="I109" t="s">
         <v>116</v>
       </c>
-      <c r="I109" t="s">
-        <v>119</v>
-      </c>
       <c r="J109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K109" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -4997,27 +4997,27 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G110" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H110" t="s">
+        <v>113</v>
+      </c>
+      <c r="I110" t="s">
         <v>116</v>
       </c>
-      <c r="I110" t="s">
-        <v>119</v>
-      </c>
       <c r="J110" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K110" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B111" t="s">
         <v>45</v>
@@ -5032,27 +5032,27 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G111" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H111" t="s">
+        <v>113</v>
+      </c>
+      <c r="I111" t="s">
         <v>116</v>
       </c>
-      <c r="I111" t="s">
-        <v>119</v>
-      </c>
       <c r="J111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B112" t="s">
         <v>45</v>
@@ -5067,27 +5067,27 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G112" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H112" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" t="s">
         <v>116</v>
       </c>
-      <c r="I112" t="s">
-        <v>119</v>
-      </c>
       <c r="J112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B113" t="s">
         <v>45</v>
@@ -5102,27 +5102,27 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G113" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I113" t="s">
         <v>116</v>
       </c>
-      <c r="I113" t="s">
-        <v>119</v>
-      </c>
       <c r="J113" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K113" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -5137,27 +5137,27 @@
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G114" t="s">
+        <v>112</v>
+      </c>
+      <c r="H114" t="s">
+        <v>113</v>
+      </c>
+      <c r="I114" t="s">
+        <v>239</v>
+      </c>
+      <c r="J114" t="s">
         <v>115</v>
       </c>
-      <c r="H114" t="s">
-        <v>116</v>
-      </c>
-      <c r="I114" t="s">
-        <v>242</v>
-      </c>
-      <c r="J114" t="s">
-        <v>118</v>
-      </c>
       <c r="K114" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
@@ -5172,27 +5172,27 @@
         <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G115" t="s">
+        <v>112</v>
+      </c>
+      <c r="H115" t="s">
+        <v>113</v>
+      </c>
+      <c r="I115" t="s">
+        <v>239</v>
+      </c>
+      <c r="J115" t="s">
         <v>115</v>
       </c>
-      <c r="H115" t="s">
-        <v>116</v>
-      </c>
-      <c r="I115" t="s">
-        <v>242</v>
-      </c>
-      <c r="J115" t="s">
-        <v>118</v>
-      </c>
       <c r="K115" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
@@ -5207,27 +5207,27 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G116" t="s">
+        <v>112</v>
+      </c>
+      <c r="H116" t="s">
+        <v>113</v>
+      </c>
+      <c r="I116" t="s">
+        <v>239</v>
+      </c>
+      <c r="J116" t="s">
         <v>115</v>
       </c>
-      <c r="H116" t="s">
-        <v>116</v>
-      </c>
-      <c r="I116" t="s">
-        <v>242</v>
-      </c>
-      <c r="J116" t="s">
-        <v>118</v>
-      </c>
       <c r="K116" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
@@ -5242,27 +5242,27 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G117" t="s">
+        <v>112</v>
+      </c>
+      <c r="H117" t="s">
+        <v>113</v>
+      </c>
+      <c r="I117" t="s">
+        <v>239</v>
+      </c>
+      <c r="J117" t="s">
         <v>115</v>
       </c>
-      <c r="H117" t="s">
-        <v>116</v>
-      </c>
-      <c r="I117" t="s">
-        <v>242</v>
-      </c>
-      <c r="J117" t="s">
-        <v>118</v>
-      </c>
       <c r="K117" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
         <v>57</v>
@@ -5277,22 +5277,22 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G118" t="s">
+        <v>112</v>
+      </c>
+      <c r="H118" t="s">
+        <v>113</v>
+      </c>
+      <c r="I118" t="s">
+        <v>239</v>
+      </c>
+      <c r="J118" t="s">
         <v>115</v>
       </c>
-      <c r="H118" t="s">
-        <v>116</v>
-      </c>
-      <c r="I118" t="s">
-        <v>242</v>
-      </c>
-      <c r="J118" t="s">
-        <v>118</v>
-      </c>
       <c r="K118" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
